--- a/YearReturn.xlsx
+++ b/YearReturn.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1115,6 +1115,16 @@
         <v>24.2305007976299</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>23.30900234342402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/YearReturn.xlsx
+++ b/YearReturn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>S&amp;P500 Yearly Growth</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average Growth Rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,7 +457,12 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.4415562379258</v>
+        <v>-0.134415562379258</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -462,8 +472,9 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.05950679467286</v>
-      </c>
+        <v>0.3805950679467285</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,8 +483,9 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.476725924257426</v>
-      </c>
+        <v>0.08476725924257426</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -482,8 +494,9 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.972113537213585</v>
-      </c>
+        <v>-0.02972113537213586</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,8 +505,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.12855326147094</v>
-      </c>
+        <v>0.2312855326147094</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -502,8 +516,9 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.80992902477469</v>
-      </c>
+        <v>-0.1180992902477469</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -512,8 +527,9 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.89064731726422</v>
-      </c>
+        <v>0.1889064731726422</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -522,8 +538,9 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.96987975516375</v>
-      </c>
+        <v>0.1296987975516375</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -532,8 +549,9 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.061947262744283</v>
-      </c>
+        <v>0.09061947262744284</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -542,8 +560,9 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.09098608046151</v>
-      </c>
+        <v>-0.1309098608046151</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -552,8 +571,9 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.09211878719128</v>
-      </c>
+        <v>0.2009211878719128</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -562,8 +582,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.660411833873278</v>
-      </c>
+        <v>0.07660411833873278</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -572,8 +593,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-11.36145097478625</v>
-      </c>
+        <v>-0.1136145097478626</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -582,8 +604,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0977666409646132</v>
-      </c>
+        <v>0.000977666409646132</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -592,8 +615,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.78675490767108</v>
-      </c>
+        <v>0.1078675490767108</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -602,8 +626,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.63327190358967</v>
-      </c>
+        <v>0.1563327190358967</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -612,8 +637,9 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-17.36552263451615</v>
-      </c>
+        <v>-0.1736552263451615</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -622,8 +648,9 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-29.71809798691919</v>
-      </c>
+        <v>-0.297180979869192</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -632,8 +659,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.54901641343661</v>
-      </c>
+        <v>0.3154901641343661</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -642,8 +670,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.14846011262304</v>
-      </c>
+        <v>0.1914846011262304</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -652,8 +681,9 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-11.50195488149554</v>
-      </c>
+        <v>-0.1150195488149554</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -662,8 +692,9 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.062042221278598</v>
-      </c>
+        <v>0.01062042221278598</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -672,8 +703,9 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12.30881464564315</v>
-      </c>
+        <v>0.1230881464564315</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -682,8 +714,9 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.77356997979633</v>
-      </c>
+        <v>0.2577356997979633</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -692,8 +725,9 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-9.730400699458613</v>
-      </c>
+        <v>-0.09730400699458613</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -702,8 +736,9 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.76131855357891</v>
-      </c>
+        <v>0.1476131855357891</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -712,8 +747,9 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.27104194507031</v>
-      </c>
+        <v>0.1727104194507031</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -722,8 +758,9 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.400602025080924</v>
-      </c>
+        <v>0.01400602025080924</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -732,8 +769,9 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.3334081796194</v>
-      </c>
+        <v>0.2633340817961941</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -742,8 +780,9 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.62040873159799</v>
-      </c>
+        <v>0.1462040873159799</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -752,8 +791,9 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.02750286956851</v>
-      </c>
+        <v>0.0202750286956851</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -762,8 +802,9 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.40084149367907</v>
-      </c>
+        <v>0.1240084149367907</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -772,8 +813,9 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.25046534031901</v>
-      </c>
+        <v>0.2725046534031901</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -782,8 +824,9 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.55913782572701</v>
-      </c>
+        <v>-0.0655913782572701</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -792,8 +835,9 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.30670304526096</v>
-      </c>
+        <v>0.2630670304526097</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -802,8 +846,9 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.464263175974898</v>
-      </c>
+        <v>0.04464263175974897</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -812,8 +857,9 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.055156263296866</v>
-      </c>
+        <v>0.07055156263296866</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -822,8 +868,9 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.539291029147324</v>
-      </c>
+        <v>-0.01539291029147324</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -832,8 +879,9 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.1106554770871</v>
-      </c>
+        <v>0.341106554770871</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -842,8 +890,9 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>20.26366617030328</v>
-      </c>
+        <v>0.2026366617030328</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -852,8 +901,9 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.00818174657086</v>
-      </c>
+        <v>0.3100818174657086</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -862,8 +912,9 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.66858915596535</v>
-      </c>
+        <v>0.2666858915596535</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -872,8 +923,9 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.5260466588784</v>
-      </c>
+        <v>0.195260466588784</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -882,8 +934,9 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-10.13918466585843</v>
-      </c>
+        <v>-0.1013918466585843</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -892,8 +945,9 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-13.0426931727426</v>
-      </c>
+        <v>-0.130426931727426</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -902,8 +956,9 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-23.36596395710357</v>
-      </c>
+        <v>-0.2336596395710357</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -912,8 +967,9 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>26.38039993281984</v>
-      </c>
+        <v>0.2638039993281984</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -922,8 +978,9 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.993452410946762</v>
-      </c>
+        <v>0.08993452410946762</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -932,8 +989,9 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.001022658127493</v>
-      </c>
+        <v>0.03001022658127493</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -942,8 +1000,9 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13.6194317382607</v>
-      </c>
+        <v>0.136194317382607</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -952,8 +1011,9 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.529573066347962</v>
-      </c>
+        <v>0.03529573066347962</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -962,8 +1022,9 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-38.48579306090672</v>
-      </c>
+        <v>-0.3848579306090671</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -972,8 +1033,9 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>23.45419048834071</v>
-      </c>
+        <v>0.2345419048834071</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -982,8 +1044,9 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12.78271385376018</v>
-      </c>
+        <v>0.1278271385376018</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -992,8 +1055,9 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.003183666393693157</v>
-      </c>
+        <v>-3.183666393693157e-05</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1002,8 +1066,9 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13.40569092662104</v>
-      </c>
+        <v>0.1340569092662104</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1012,8 +1077,9 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>29.60124957332436</v>
-      </c>
+        <v>0.2960124957332436</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1022,8 +1088,9 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11.39063378674811</v>
-      </c>
+        <v>0.1139063378674811</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1032,8 +1099,9 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.7265997205823517</v>
-      </c>
+        <v>-0.007265997205823517</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1042,8 +1110,9 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9.535022667283645</v>
-      </c>
+        <v>0.09535022667283645</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1052,8 +1121,9 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>19.41996552328792</v>
-      </c>
+        <v>0.1941996552328792</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1062,8 +1132,9 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-6.237259849620682</v>
-      </c>
+        <v>-0.06237259849620682</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1072,8 +1143,9 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>28.87807022515845</v>
-      </c>
+        <v>0.2887807022515845</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1082,8 +1154,9 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>16.25892305570617</v>
-      </c>
+        <v>0.1625892305570616</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1092,8 +1165,9 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>26.89273866137125</v>
-      </c>
+        <v>0.2689273866137125</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1102,8 +1176,9 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-19.44282720342927</v>
-      </c>
+        <v>-0.1944282720342927</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1112,8 +1187,9 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>24.2305007976299</v>
-      </c>
+        <v>0.242305007976299</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1122,8 +1198,9 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>23.30900234342402</v>
-      </c>
+        <v>0.2330900234342402</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
